--- a/tRACKER.xlsx
+++ b/tRACKER.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NON\School System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NON\School System V5\EliteSoftv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Key Modules" sheetId="1" r:id="rId1"/>
+    <sheet name="Other Tasks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId2"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="93">
   <si>
     <t>Setups</t>
   </si>
@@ -224,20 +225,117 @@
     <t>Deprecated</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Sessions are not expiring , once you login, you remain active until you log out. Implement session expiry after 30 mins of inactivity</t>
+  </si>
+  <si>
+    <t>Demonstrate how to fetch logged in user from any other view</t>
+  </si>
+  <si>
+    <t>Deploy the application on Heroku so that I can access it on phone and test</t>
+  </si>
+  <si>
+    <t>Work on a simple report for classes screen which passes parameter to filter specific class but when u dont specify any parameter, it returns all classes</t>
+  </si>
+  <si>
+    <t>Kimotho</t>
+  </si>
+  <si>
+    <t>Gabu</t>
+  </si>
+  <si>
+    <t>Fee Categories</t>
+  </si>
+  <si>
+    <t>Fee Structure</t>
+  </si>
+  <si>
+    <t>Fee Groupings</t>
+  </si>
+  <si>
+    <t>Receive Fees</t>
+  </si>
+  <si>
+    <t>MPESA Transactions</t>
+  </si>
+  <si>
+    <t>Cancel Receipts</t>
+  </si>
+  <si>
+    <t>Manage Balances</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Manage Pocket Money</t>
+  </si>
+  <si>
+    <t>Finance Manager</t>
+  </si>
+  <si>
+    <t>Petty Cash</t>
+  </si>
+  <si>
+    <t>Float Replenishment</t>
+  </si>
+  <si>
+    <t>Petty Cash Payments</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Phase 1 Modules</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -261,13 +359,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,9 +393,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="44502.91035416667" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="44506.905221064815" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="48">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D1:D1048576" sheet="Sheet1"/>
+    <worksheetSource ref="D1:D1048576" sheet="Key Modules"/>
   </cacheSource>
   <cacheFields count="1">
     <cacheField name="Status" numFmtId="0">
@@ -296,8 +403,8 @@
         <s v="Pending"/>
         <s v="Done"/>
         <s v="Deprecated"/>
-        <s v="In Progress"/>
         <m/>
+        <s v="In Progress" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -315,48 +422,6 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
     <x v="1"/>
   </r>
   <r>
@@ -366,15 +431,45 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="0"/>
-  </r>
-  <r>
     <x v="1"/>
   </r>
   <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="1"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="1"/>
   </r>
   <r>
@@ -387,6 +482,78 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
@@ -394,81 +561,21 @@
   </r>
   <r>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M3:N9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
         <item x="1"/>
         <item x="0"/>
-        <item x="4"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
+        <item m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -476,7 +583,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -488,9 +595,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -774,23 +878,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="C29:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
     <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>57</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -806,13 +921,19 @@
       <c r="D2" t="s">
         <v>58</v>
       </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>60</v>
@@ -826,13 +947,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N4" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -840,13 +961,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N5" s="3">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -857,7 +981,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>61</v>
@@ -871,11 +998,14 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
       <c r="M7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -885,11 +1015,14 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
       <c r="M8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -899,11 +1032,8 @@
       <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="3">
-        <v>47</v>
+      <c r="E9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -913,6 +1043,9 @@
       <c r="D10" t="s">
         <v>58</v>
       </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -924,6 +1057,9 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
@@ -932,6 +1068,9 @@
       <c r="D12" t="s">
         <v>58</v>
       </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
@@ -940,6 +1079,9 @@
       <c r="D13" t="s">
         <v>58</v>
       </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -948,6 +1090,9 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
@@ -956,6 +1101,9 @@
       <c r="D15" t="s">
         <v>58</v>
       </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
@@ -964,8 +1112,11 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -975,8 +1126,11 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>22</v>
       </c>
@@ -984,95 +1138,122 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -1082,8 +1263,11 @@
       <c r="D30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1093,48 +1277,66 @@
       <c r="D31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="D32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -1144,24 +1346,33 @@
       <c r="D37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>44</v>
       </c>
       <c r="D38" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>45</v>
       </c>
       <c r="D39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1171,32 +1382,44 @@
       <c r="D40" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="D41" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>49</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1206,37 +1429,210 @@
       <c r="D44" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>53</v>
       </c>
       <c r="D45" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>54</v>
       </c>
       <c r="D46" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>56</v>
       </c>
       <c r="D47" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1246,5 +1642,80 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>